--- a/excel/finished/焦化/CK67-鼓风冷凝(日)报表设计.xlsx
+++ b/excel/finished/焦化/CK67-鼓风冷凝(日)报表设计.xlsx
@@ -4,86 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="1.鼓风冷凝(日)" sheetId="1" r:id="rId1"/>
     <sheet name="_gfln1_day_hour" sheetId="2" r:id="rId2"/>
     <sheet name="_gfln2_day_hour" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203">
   <si>
     <t>6-7#  焦 炉 鼓 风 冷 凝 操 作 记 录</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">                               </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">             </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">              </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
   </si>
   <si>
     <t>SGSSG-BSMCSA35-G009-01A</t>
@@ -1437,8 +1375,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1573,7 +1511,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1587,13 +1547,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1624,22 +1638,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1647,68 +1646,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1746,7 +1684,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1764,7 +1792,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1776,7 +1816,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1788,145 +1858,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2281,24 +2219,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2329,6 +2249,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2340,6 +2271,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2358,27 +2307,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2387,136 +2325,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="21" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="32" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -2788,7 +2726,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>595512</xdr:colOff>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2980,9 +2918,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>595512</xdr:colOff>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3164,6 +3102,19 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="_metadata"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3426,8 +3377,8 @@
   <sheetPr/>
   <dimension ref="A1:BW38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2:AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3537,8 +3488,9 @@
       <c r="S2" s="29"/>
       <c r="T2" s="45"/>
       <c r="U2" s="46"/>
-      <c r="V2" s="46" t="s">
-        <v>1</v>
+      <c r="V2" s="46" t="e">
+        <f>[1]_metadata!B1</f>
+        <v>#REF!</v>
       </c>
       <c r="W2" s="46"/>
       <c r="X2" s="46"/>
@@ -3551,7 +3503,7 @@
       <c r="AE2" s="53"/>
       <c r="AF2" s="53"/>
       <c r="AG2" s="55" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH2" s="56"/>
       <c r="AI2" s="56"/>
@@ -3564,10 +3516,10 @@
     <row r="3" customFormat="1" ht="15.6" customHeight="1" spans="1:75">
       <c r="A3" s="10"/>
       <c r="B3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>4</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -3578,10 +3530,10 @@
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>5</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>6</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
@@ -3589,7 +3541,7 @@
       <c r="Q3" s="12"/>
       <c r="R3" s="12"/>
       <c r="S3" s="47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T3" s="47"/>
       <c r="U3" s="47"/>
@@ -3603,7 +3555,7 @@
       <c r="AC3" s="47"/>
       <c r="AD3" s="47"/>
       <c r="AE3" s="47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF3" s="54"/>
       <c r="AG3" s="54"/>
@@ -3616,7 +3568,7 @@
       <c r="AN3" s="54"/>
       <c r="AO3" s="54"/>
       <c r="AP3" s="47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ3" s="47"/>
       <c r="AR3" s="47"/>
@@ -3630,41 +3582,41 @@
       <c r="AZ3" s="47"/>
       <c r="BA3" s="47"/>
       <c r="BB3" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC3" s="60" t="s">
         <v>10</v>
-      </c>
-      <c r="BC3" s="60" t="s">
-        <v>11</v>
       </c>
       <c r="BD3" s="60"/>
       <c r="BE3" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="BF3" s="62" t="s">
         <v>12</v>
-      </c>
-      <c r="BF3" s="62" t="s">
-        <v>13</v>
       </c>
       <c r="BG3" s="62"/>
       <c r="BH3" s="62"/>
       <c r="BI3" s="62"/>
       <c r="BJ3" s="63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BK3" s="63"/>
       <c r="BL3" s="63"/>
       <c r="BM3" s="63"/>
       <c r="BN3" s="63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BO3" s="63"/>
       <c r="BP3" s="63"/>
       <c r="BQ3" s="63"/>
       <c r="BR3" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BS3" s="12"/>
       <c r="BT3" s="12"/>
       <c r="BU3" s="12"/>
       <c r="BV3" s="67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BW3" s="53"/>
     </row>
@@ -3672,64 +3624,64 @@
       <c r="A4" s="10"/>
       <c r="B4" s="13"/>
       <c r="C4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="F4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="G4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="H4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="I4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="J4" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="K4" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>26</v>
       </c>
       <c r="L4" s="32"/>
       <c r="M4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="O4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="P4" s="33" t="s">
         <v>29</v>
-      </c>
-      <c r="P4" s="33" t="s">
-        <v>30</v>
       </c>
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
       <c r="S4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="14" t="s">
+      <c r="U4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="U4" s="14" t="s">
+      <c r="V4" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="48" t="s">
+      <c r="W4" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="W4" s="48" t="s">
+      <c r="X4" s="33" t="s">
         <v>35</v>
-      </c>
-      <c r="X4" s="33" t="s">
-        <v>36</v>
       </c>
       <c r="Y4" s="33"/>
       <c r="Z4" s="33"/>
@@ -3738,72 +3690,72 @@
       <c r="AC4" s="33"/>
       <c r="AD4" s="33"/>
       <c r="AE4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AF4" s="14" t="s">
+      <c r="AG4" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="AG4" s="14" t="s">
+      <c r="AH4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AH4" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ4" s="14" t="s">
+      <c r="AK4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="AK4" s="14" t="s">
+      <c r="AL4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="AL4" s="14" t="s">
+      <c r="AM4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="AM4" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN4" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO4" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP4" s="14" t="s">
+      <c r="AQ4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="AQ4" s="14" t="s">
+      <c r="AR4" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="AR4" s="14" t="s">
+      <c r="AS4" s="14" t="s">
         <v>45</v>
-      </c>
-      <c r="AS4" s="14" t="s">
-        <v>46</v>
       </c>
       <c r="AT4" s="14"/>
       <c r="AU4" s="14"/>
       <c r="AV4" s="14"/>
       <c r="AW4" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX4" s="14"/>
       <c r="AY4" s="14"/>
       <c r="AZ4" s="14"/>
       <c r="BA4" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BB4" s="14"/>
       <c r="BC4" s="14"/>
       <c r="BD4" s="14"/>
       <c r="BE4" s="14"/>
       <c r="BF4" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BG4" s="14"/>
       <c r="BH4" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="BI4" s="14"/>
       <c r="BJ4" s="35"/>
@@ -3815,13 +3767,13 @@
       <c r="BP4" s="35"/>
       <c r="BQ4" s="35"/>
       <c r="BR4" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="BS4" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="BS4" s="35" t="s">
+      <c r="BT4" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="BT4" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="BU4" s="14"/>
       <c r="BV4" s="68"/>
@@ -3840,7 +3792,7 @@
       <c r="J5" s="34"/>
       <c r="K5" s="17"/>
       <c r="L5" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M5" s="15"/>
       <c r="N5" s="14"/>
@@ -3895,81 +3847,81 @@
       <c r="AQ5" s="14"/>
       <c r="AR5" s="14"/>
       <c r="AS5" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT5" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="AT5" s="59" t="s">
+      <c r="AU5" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="AU5" s="58" t="s">
+      <c r="AV5" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="AV5" s="59" t="s">
-        <v>58</v>
-      </c>
       <c r="AW5" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX5" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="AX5" s="59" t="s">
+      <c r="AY5" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="AY5" s="58" t="s">
+      <c r="AZ5" s="59" t="s">
         <v>57</v>
-      </c>
-      <c r="AZ5" s="59" t="s">
-        <v>58</v>
       </c>
       <c r="BA5" s="58"/>
       <c r="BB5" s="14"/>
       <c r="BC5" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD5" s="48" t="s">
         <v>59</v>
-      </c>
-      <c r="BD5" s="48" t="s">
-        <v>60</v>
       </c>
       <c r="BE5" s="14"/>
       <c r="BF5" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="BG5" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="BG5" s="64" t="s">
+      <c r="BH5" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="BI5" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="BJ5" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="BH5" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="BI5" s="65" t="s">
+      <c r="BK5" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="BL5" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="BM5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="BN5" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="BJ5" s="14" t="s">
+      <c r="BO5" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="BK5" s="14" t="s">
+      <c r="BP5" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="BL5" s="14" t="s">
+      <c r="BQ5" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="BM5" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN5" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="BO5" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="BP5" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="BQ5" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="BR5" s="35"/>
       <c r="BS5" s="35"/>
       <c r="BT5" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="BU5" s="69" t="s">
         <v>67</v>
-      </c>
-      <c r="BU5" s="69" t="s">
-        <v>68</v>
       </c>
       <c r="BV5" s="68"/>
       <c r="BW5" s="53"/>
@@ -3977,223 +3929,223 @@
     <row r="6" customFormat="1" ht="60" spans="1:74">
       <c r="A6" s="10"/>
       <c r="B6" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="L6" s="36" t="s">
+      <c r="M6" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="T6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="U6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="V6" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="W6" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="W6" s="2" t="s">
+      <c r="X6" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="X6" s="2" t="s">
+      <c r="Y6" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Y6" s="2" t="s">
+      <c r="Z6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="Z6" s="2" t="s">
+      <c r="AA6" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AA6" s="2" t="s">
+      <c r="AB6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AB6" s="2" t="s">
+      <c r="AC6" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AC6" s="2" t="s">
+      <c r="AD6" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AD6" s="2" t="s">
+      <c r="AE6" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AE6" s="2" t="s">
+      <c r="AF6" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AF6" s="2" t="s">
+      <c r="AG6" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AG6" s="2" t="s">
+      <c r="AH6" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AH6" s="2" t="s">
+      <c r="AI6" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AI6" s="2" t="s">
+      <c r="AJ6" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AJ6" s="2" t="s">
+      <c r="AK6" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AK6" s="2" t="s">
+      <c r="AL6" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AL6" s="2" t="s">
+      <c r="AM6" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AM6" s="2" t="s">
+      <c r="AN6" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AN6" s="2" t="s">
+      <c r="AO6" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AO6" s="2" t="s">
+      <c r="AP6" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AP6" s="2" t="s">
+      <c r="AQ6" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AQ6" s="2" t="s">
+      <c r="AR6" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AR6" s="2" t="s">
+      <c r="AS6" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AS6" s="4" t="s">
+      <c r="AT6" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU6" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AT6" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU6" s="4" t="s">
+      <c r="AV6" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="AV6" s="4" t="s">
+      <c r="AW6" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="AW6" s="4" t="s">
+      <c r="AX6" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AY6" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AX6" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="AY6" s="4" t="s">
+      <c r="AZ6" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="AZ6" s="4" t="s">
+      <c r="BA6" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="BA6" s="4" t="s">
+      <c r="BB6" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="BB6" s="4" t="s">
+      <c r="BC6" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="BC6" s="4" t="s">
+      <c r="BD6" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="BD6" s="4" t="s">
+      <c r="BE6" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="BE6" s="4" t="s">
+      <c r="BF6" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="BF6" s="5" t="s">
+      <c r="BG6" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="BG6" s="5" t="s">
+      <c r="BH6" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="BH6" s="5" t="s">
+      <c r="BI6" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="BI6" s="4" t="s">
+      <c r="BJ6" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="BJ6" s="4" t="s">
+      <c r="BK6" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BL6" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BK6" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BL6" s="4" t="s">
+      <c r="BM6" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="BM6" s="4" t="s">
+      <c r="BN6" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="BN6" s="4" t="s">
+      <c r="BO6" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="BP6" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="BO6" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="BP6" s="4" t="s">
+      <c r="BQ6" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="BQ6" s="4" t="s">
+      <c r="BR6" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="BR6" s="4" t="s">
+      <c r="BS6" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="BS6" s="4" t="s">
+      <c r="BT6" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="BT6" s="4" t="s">
+      <c r="BU6" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BU6" s="4" t="s">
+      <c r="BV6" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="BV6" s="6" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="67.5" spans="2:74">
@@ -4211,91 +4163,91 @@
       <c r="K7" s="20"/>
       <c r="L7" s="37"/>
       <c r="M7" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N7" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="W7" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="X7" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="Y7" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="Z7" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="Z7" s="3" t="s">
+      <c r="AA7" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="AA7" s="3" t="s">
+      <c r="AB7" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AB7" s="3" t="s">
+      <c r="AC7" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="AC7" s="3" t="s">
+      <c r="AD7" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="AD7" s="3" t="s">
+      <c r="AE7" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="AE7" s="3" t="s">
+      <c r="AF7" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="AF7" s="3" t="s">
+      <c r="AG7" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="AG7" s="3" t="s">
+      <c r="AH7" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="AH7" s="3" t="s">
+      <c r="AI7" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="AI7" s="3" t="s">
+      <c r="AJ7" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="AJ7" s="3" t="s">
+      <c r="AK7" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="AK7" s="3" t="s">
+      <c r="AL7" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="AL7" s="3" t="s">
+      <c r="AM7" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="AM7" s="3" t="s">
+      <c r="AN7" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="AN7" s="3" t="s">
+      <c r="AO7" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="AO7" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="AP7" s="20"/>
       <c r="AQ7" s="20"/>
@@ -4346,91 +4298,91 @@
       <c r="K8" s="20"/>
       <c r="L8" s="38"/>
       <c r="M8" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="R8" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="S8" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="T8" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="U8" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="V8" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="W8" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="X8" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="Y8" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="Z8" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="Z8" s="3" t="s">
+      <c r="AA8" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="AA8" s="3" t="s">
+      <c r="AB8" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="AB8" s="3" t="s">
+      <c r="AC8" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="AC8" s="3" t="s">
+      <c r="AD8" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="AD8" s="3" t="s">
+      <c r="AE8" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="AE8" s="3" t="s">
+      <c r="AF8" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="AF8" s="3" t="s">
+      <c r="AG8" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="AG8" s="3" t="s">
+      <c r="AH8" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="AH8" s="3" t="s">
+      <c r="AI8" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="AI8" s="3" t="s">
+      <c r="AJ8" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="AJ8" s="3" t="s">
+      <c r="AK8" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AK8" s="3" t="s">
+      <c r="AL8" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="AL8" s="3" t="s">
+      <c r="AM8" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="AM8" s="3" t="s">
+      <c r="AN8" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="AN8" s="3" t="s">
+      <c r="AO8" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="AO8" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="AP8" s="20"/>
       <c r="AQ8" s="20"/>
@@ -11428,7 +11380,7 @@
     </row>
     <row r="33" customFormat="1" spans="2:74">
       <c r="B33" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
@@ -11505,7 +11457,7 @@
     </row>
     <row r="34" customFormat="1" spans="2:74">
       <c r="B34" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="20"/>
@@ -11582,7 +11534,7 @@
     </row>
     <row r="35" customFormat="1" spans="2:74">
       <c r="B35" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
@@ -11659,7 +11611,7 @@
     </row>
     <row r="36" customFormat="1" ht="14.25" spans="2:74">
       <c r="B36" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C36" s="23"/>
       <c r="D36" s="23"/>
@@ -11736,7 +11688,7 @@
     </row>
     <row r="37" customFormat="1" ht="84" customHeight="1" spans="2:74">
       <c r="B37" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -11748,7 +11700,7 @@
       <c r="J37" s="25"/>
       <c r="K37" s="39"/>
       <c r="L37" s="40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M37" s="41"/>
       <c r="N37" s="41"/>
@@ -11761,7 +11713,7 @@
       <c r="U37" s="41"/>
       <c r="V37" s="51"/>
       <c r="W37" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X37" s="41"/>
       <c r="Y37" s="41"/>
@@ -11817,7 +11769,7 @@
     </row>
     <row r="38" customFormat="1" ht="16.5" spans="2:74">
       <c r="B38" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
@@ -11829,7 +11781,7 @@
       <c r="J38" s="27"/>
       <c r="K38" s="42"/>
       <c r="L38" s="43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M38" s="44"/>
       <c r="N38" s="44"/>
@@ -11842,7 +11794,7 @@
       <c r="U38" s="44"/>
       <c r="V38" s="52"/>
       <c r="W38" s="43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X38" s="44"/>
       <c r="Y38" s="44"/>
@@ -11986,130 +11938,130 @@
   <sheetData>
     <row r="1" customFormat="1" ht="48" spans="1:42">
       <c r="A1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="J1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="R1" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AE1" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="AP1" s="6" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -12131,269 +12083,269 @@
   <sheetData>
     <row r="1" ht="36" spans="1:29">
       <c r="A1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" ht="54" spans="1:29">
       <c r="A2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="3" ht="54" spans="1:29">
       <c r="A3" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/excel/finished/焦化/CK67-鼓风冷凝(日)报表设计.xlsx
+++ b/excel/finished/焦化/CK67-鼓风冷凝(日)报表设计.xlsx
@@ -4,16 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="1.鼓风冷凝(日)" sheetId="1" r:id="rId1"/>
     <sheet name="_gfln1_day_hour" sheetId="2" r:id="rId2"/>
     <sheet name="_gfln2_day_hour" sheetId="3" r:id="rId3"/>
+    <sheet name="_metadata" sheetId="4" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -1374,11 +1372,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="44">
     <font>
@@ -1511,29 +1510,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1541,34 +1526,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1583,15 +1540,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1605,9 +1577,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1621,32 +1622,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1684,7 +1683,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1696,31 +1809,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1732,139 +1857,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2210,30 +2209,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2251,11 +2226,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2278,6 +2266,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -2286,24 +2298,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2313,10 +2312,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2325,140 +2324,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="21" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="32" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2586,6 +2585,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3104,19 +3106,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="_metadata"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3488,30 +3477,30 @@
       <c r="S2" s="29"/>
       <c r="T2" s="45"/>
       <c r="U2" s="46"/>
-      <c r="V2" s="46" t="e">
-        <f>[1]_metadata!B1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="55" t="s">
+      <c r="V2" s="47">
+        <f>_metadata!B1</f>
+        <v>0</v>
+      </c>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="56"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="57"/>
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="57"/>
     </row>
     <row r="3" customFormat="1" ht="15.6" customHeight="1" spans="1:75">
       <c r="A3" s="10"/>
@@ -3540,85 +3529,85 @@
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
       <c r="R3" s="12"/>
-      <c r="S3" s="47" t="s">
+      <c r="S3" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47" t="s">
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="47" t="s">
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="55"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="55"/>
+      <c r="AN3" s="55"/>
+      <c r="AO3" s="55"/>
+      <c r="AP3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="AQ3" s="47"/>
-      <c r="AR3" s="47"/>
-      <c r="AS3" s="47"/>
-      <c r="AT3" s="47"/>
-      <c r="AU3" s="47"/>
-      <c r="AV3" s="47"/>
-      <c r="AW3" s="47"/>
-      <c r="AX3" s="47"/>
-      <c r="AY3" s="47"/>
-      <c r="AZ3" s="47"/>
-      <c r="BA3" s="47"/>
-      <c r="BB3" s="60" t="s">
+      <c r="AQ3" s="48"/>
+      <c r="AR3" s="48"/>
+      <c r="AS3" s="48"/>
+      <c r="AT3" s="48"/>
+      <c r="AU3" s="48"/>
+      <c r="AV3" s="48"/>
+      <c r="AW3" s="48"/>
+      <c r="AX3" s="48"/>
+      <c r="AY3" s="48"/>
+      <c r="AZ3" s="48"/>
+      <c r="BA3" s="48"/>
+      <c r="BB3" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="BC3" s="60" t="s">
+      <c r="BC3" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="BD3" s="60"/>
-      <c r="BE3" s="60" t="s">
+      <c r="BD3" s="61"/>
+      <c r="BE3" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="BF3" s="62" t="s">
+      <c r="BF3" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="BG3" s="62"/>
-      <c r="BH3" s="62"/>
-      <c r="BI3" s="62"/>
-      <c r="BJ3" s="63" t="s">
+      <c r="BG3" s="63"/>
+      <c r="BH3" s="63"/>
+      <c r="BI3" s="63"/>
+      <c r="BJ3" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="BK3" s="63"/>
-      <c r="BL3" s="63"/>
-      <c r="BM3" s="63"/>
-      <c r="BN3" s="63" t="s">
+      <c r="BK3" s="64"/>
+      <c r="BL3" s="64"/>
+      <c r="BM3" s="64"/>
+      <c r="BN3" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="BO3" s="63"/>
-      <c r="BP3" s="63"/>
-      <c r="BQ3" s="63"/>
+      <c r="BO3" s="64"/>
+      <c r="BP3" s="64"/>
+      <c r="BQ3" s="64"/>
       <c r="BR3" s="12" t="s">
         <v>15</v>
       </c>
       <c r="BS3" s="12"/>
       <c r="BT3" s="12"/>
       <c r="BU3" s="12"/>
-      <c r="BV3" s="67" t="s">
+      <c r="BV3" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="BW3" s="53"/>
+      <c r="BW3" s="54"/>
     </row>
     <row r="4" customFormat="1" ht="29.45" customHeight="1" spans="1:75">
       <c r="A4" s="10"/>
@@ -3674,10 +3663,10 @@
       <c r="U4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="V4" s="48" t="s">
+      <c r="V4" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="W4" s="48" t="s">
+      <c r="W4" s="49" t="s">
         <v>34</v>
       </c>
       <c r="X4" s="33" t="s">
@@ -3776,8 +3765,8 @@
         <v>52</v>
       </c>
       <c r="BU4" s="14"/>
-      <c r="BV4" s="68"/>
-      <c r="BW4" s="53"/>
+      <c r="BV4" s="69"/>
+      <c r="BW4" s="54"/>
     </row>
     <row r="5" customFormat="1" ht="29.1" customHeight="1" spans="1:75">
       <c r="A5" s="10"/>
@@ -3809,27 +3798,27 @@
       <c r="S5" s="20"/>
       <c r="T5" s="20"/>
       <c r="U5" s="20"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="50">
+      <c r="V5" s="49"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="51">
         <v>1</v>
       </c>
-      <c r="Y5" s="50">
+      <c r="Y5" s="51">
         <v>2</v>
       </c>
-      <c r="Z5" s="50">
+      <c r="Z5" s="51">
         <v>3</v>
       </c>
-      <c r="AA5" s="50">
+      <c r="AA5" s="51">
         <v>4</v>
       </c>
-      <c r="AB5" s="50">
+      <c r="AB5" s="51">
         <v>5</v>
       </c>
-      <c r="AC5" s="50">
+      <c r="AC5" s="51">
         <v>6</v>
       </c>
-      <c r="AD5" s="50">
+      <c r="AD5" s="51">
         <v>7</v>
       </c>
       <c r="AE5" s="14"/>
@@ -3846,49 +3835,49 @@
       <c r="AP5" s="14"/>
       <c r="AQ5" s="14"/>
       <c r="AR5" s="14"/>
-      <c r="AS5" s="58" t="s">
+      <c r="AS5" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="AT5" s="59" t="s">
+      <c r="AT5" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="AU5" s="58" t="s">
+      <c r="AU5" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="AV5" s="59" t="s">
+      <c r="AV5" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="AW5" s="58" t="s">
+      <c r="AW5" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="AX5" s="59" t="s">
+      <c r="AX5" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="AY5" s="58" t="s">
+      <c r="AY5" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="AZ5" s="59" t="s">
+      <c r="AZ5" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="BA5" s="58"/>
+      <c r="BA5" s="59"/>
       <c r="BB5" s="14"/>
-      <c r="BC5" s="61" t="s">
+      <c r="BC5" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="BD5" s="48" t="s">
+      <c r="BD5" s="49" t="s">
         <v>59</v>
       </c>
       <c r="BE5" s="14"/>
-      <c r="BF5" s="64" t="s">
+      <c r="BF5" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="BG5" s="64" t="s">
+      <c r="BG5" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="BH5" s="65" t="s">
+      <c r="BH5" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="BI5" s="65" t="s">
+      <c r="BI5" s="66" t="s">
         <v>61</v>
       </c>
       <c r="BJ5" s="14" t="s">
@@ -3917,14 +3906,14 @@
       </c>
       <c r="BR5" s="35"/>
       <c r="BS5" s="35"/>
-      <c r="BT5" s="66" t="s">
+      <c r="BT5" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="BU5" s="69" t="s">
+      <c r="BU5" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="BV5" s="68"/>
-      <c r="BW5" s="53"/>
+      <c r="BV5" s="69"/>
+      <c r="BW5" s="54"/>
     </row>
     <row r="6" customFormat="1" ht="60" spans="1:74">
       <c r="A6" s="10"/>
@@ -4281,7 +4270,7 @@
       <c r="BS7" s="20"/>
       <c r="BT7" s="20"/>
       <c r="BU7" s="20"/>
-      <c r="BV7" s="70"/>
+      <c r="BV7" s="71"/>
     </row>
     <row r="8" customFormat="1" ht="82" customHeight="1" spans="2:74">
       <c r="B8" s="19">
@@ -4416,7 +4405,7 @@
       <c r="BS8" s="20"/>
       <c r="BT8" s="20"/>
       <c r="BU8" s="20"/>
-      <c r="BV8" s="70"/>
+      <c r="BV8" s="71"/>
     </row>
     <row r="9" customFormat="1" ht="20" customHeight="1" spans="2:74">
       <c r="B9" s="19">
@@ -4703,7 +4692,7 @@
         <f>IF(_gfln1_day_hour!AO2="","",_gfln1_day_hour!AO2)</f>
         <v/>
       </c>
-      <c r="BV9" s="70" t="str">
+      <c r="BV9" s="71" t="str">
         <f>IF(_gfln1_day_hour!AP2="","",_gfln1_day_hour!AP2)</f>
         <v/>
       </c>
@@ -4993,7 +4982,7 @@
         <f>IF(_gfln1_day_hour!AO3="","",_gfln1_day_hour!AO3)</f>
         <v/>
       </c>
-      <c r="BV10" s="70" t="str">
+      <c r="BV10" s="71" t="str">
         <f>IF(_gfln1_day_hour!AP3="","",_gfln1_day_hour!AP3)</f>
         <v/>
       </c>
@@ -5283,7 +5272,7 @@
         <f>IF(_gfln1_day_hour!AO4="","",_gfln1_day_hour!AO4)</f>
         <v/>
       </c>
-      <c r="BV11" s="70" t="str">
+      <c r="BV11" s="71" t="str">
         <f>IF(_gfln1_day_hour!AP4="","",_gfln1_day_hour!AP4)</f>
         <v/>
       </c>
@@ -5573,7 +5562,7 @@
         <f>IF(_gfln1_day_hour!AO5="","",_gfln1_day_hour!AO5)</f>
         <v/>
       </c>
-      <c r="BV12" s="70" t="str">
+      <c r="BV12" s="71" t="str">
         <f>IF(_gfln1_day_hour!AP5="","",_gfln1_day_hour!AP5)</f>
         <v/>
       </c>
@@ -5863,7 +5852,7 @@
         <f>IF(_gfln1_day_hour!AO6="","",_gfln1_day_hour!AO6)</f>
         <v/>
       </c>
-      <c r="BV13" s="70" t="str">
+      <c r="BV13" s="71" t="str">
         <f>IF(_gfln1_day_hour!AP6="","",_gfln1_day_hour!AP6)</f>
         <v/>
       </c>
@@ -6153,7 +6142,7 @@
         <f>IF(_gfln1_day_hour!AO7="","",_gfln1_day_hour!AO7)</f>
         <v/>
       </c>
-      <c r="BV14" s="70" t="str">
+      <c r="BV14" s="71" t="str">
         <f>IF(_gfln1_day_hour!AP7="","",_gfln1_day_hour!AP7)</f>
         <v/>
       </c>
@@ -6443,7 +6432,7 @@
         <f>IF(_gfln1_day_hour!AO8="","",_gfln1_day_hour!AO8)</f>
         <v/>
       </c>
-      <c r="BV15" s="70" t="str">
+      <c r="BV15" s="71" t="str">
         <f>IF(_gfln1_day_hour!AP8="","",_gfln1_day_hour!AP8)</f>
         <v/>
       </c>
@@ -6733,7 +6722,7 @@
         <f>IF(_gfln1_day_hour!AO9="","",_gfln1_day_hour!AO9)</f>
         <v/>
       </c>
-      <c r="BV16" s="70" t="str">
+      <c r="BV16" s="71" t="str">
         <f>IF(_gfln1_day_hour!AP9="","",_gfln1_day_hour!AP9)</f>
         <v/>
       </c>
@@ -7023,7 +7012,7 @@
         <f>IF(_gfln1_day_hour!AO10="","",_gfln1_day_hour!AO10)</f>
         <v/>
       </c>
-      <c r="BV17" s="70" t="str">
+      <c r="BV17" s="71" t="str">
         <f>IF(_gfln1_day_hour!AP10="","",_gfln1_day_hour!AP10)</f>
         <v/>
       </c>
@@ -7313,7 +7302,7 @@
         <f>IF(_gfln1_day_hour!AO11="","",_gfln1_day_hour!AO11)</f>
         <v/>
       </c>
-      <c r="BV18" s="70" t="str">
+      <c r="BV18" s="71" t="str">
         <f>IF(_gfln1_day_hour!AP11="","",_gfln1_day_hour!AP11)</f>
         <v/>
       </c>
@@ -7603,7 +7592,7 @@
         <f>IF(_gfln1_day_hour!AO12="","",_gfln1_day_hour!AO12)</f>
         <v/>
       </c>
-      <c r="BV19" s="70" t="str">
+      <c r="BV19" s="71" t="str">
         <f>IF(_gfln1_day_hour!AP12="","",_gfln1_day_hour!AP12)</f>
         <v/>
       </c>
@@ -7893,7 +7882,7 @@
         <f>IF(_gfln1_day_hour!AO13="","",_gfln1_day_hour!AO13)</f>
         <v/>
       </c>
-      <c r="BV20" s="70" t="str">
+      <c r="BV20" s="71" t="str">
         <f>IF(_gfln1_day_hour!AP13="","",_gfln1_day_hour!AP13)</f>
         <v/>
       </c>
@@ -8183,7 +8172,7 @@
         <f>IF(_gfln1_day_hour!AO14="","",_gfln1_day_hour!AO14)</f>
         <v/>
       </c>
-      <c r="BV21" s="70" t="str">
+      <c r="BV21" s="71" t="str">
         <f>IF(_gfln1_day_hour!AP14="","",_gfln1_day_hour!AP14)</f>
         <v/>
       </c>
@@ -8473,7 +8462,7 @@
         <f>IF(_gfln1_day_hour!AO15="","",_gfln1_day_hour!AO15)</f>
         <v/>
       </c>
-      <c r="BV22" s="70" t="str">
+      <c r="BV22" s="71" t="str">
         <f>IF(_gfln1_day_hour!AP15="","",_gfln1_day_hour!AP15)</f>
         <v/>
       </c>
@@ -8763,7 +8752,7 @@
         <f>IF(_gfln1_day_hour!AO16="","",_gfln1_day_hour!AO16)</f>
         <v/>
       </c>
-      <c r="BV23" s="70" t="str">
+      <c r="BV23" s="71" t="str">
         <f>IF(_gfln1_day_hour!AP16="","",_gfln1_day_hour!AP16)</f>
         <v/>
       </c>
@@ -9053,7 +9042,7 @@
         <f>IF(_gfln1_day_hour!AO17="","",_gfln1_day_hour!AO17)</f>
         <v/>
       </c>
-      <c r="BV24" s="70" t="str">
+      <c r="BV24" s="71" t="str">
         <f>IF(_gfln1_day_hour!AP17="","",_gfln1_day_hour!AP17)</f>
         <v/>
       </c>
@@ -9343,7 +9332,7 @@
         <f>IF(_gfln1_day_hour!AO18="","",_gfln1_day_hour!AO18)</f>
         <v/>
       </c>
-      <c r="BV25" s="70" t="str">
+      <c r="BV25" s="71" t="str">
         <f>IF(_gfln1_day_hour!AP18="","",_gfln1_day_hour!AP18)</f>
         <v/>
       </c>
@@ -9633,7 +9622,7 @@
         <f>IF(_gfln1_day_hour!AO19="","",_gfln1_day_hour!AO19)</f>
         <v/>
       </c>
-      <c r="BV26" s="70" t="str">
+      <c r="BV26" s="71" t="str">
         <f>IF(_gfln1_day_hour!AP19="","",_gfln1_day_hour!AP19)</f>
         <v/>
       </c>
@@ -9923,7 +9912,7 @@
         <f>IF(_gfln1_day_hour!AO20="","",_gfln1_day_hour!AO20)</f>
         <v/>
       </c>
-      <c r="BV27" s="70" t="str">
+      <c r="BV27" s="71" t="str">
         <f>IF(_gfln1_day_hour!AP20="","",_gfln1_day_hour!AP20)</f>
         <v/>
       </c>
@@ -10213,7 +10202,7 @@
         <f>IF(_gfln1_day_hour!AO21="","",_gfln1_day_hour!AO21)</f>
         <v/>
       </c>
-      <c r="BV28" s="70" t="str">
+      <c r="BV28" s="71" t="str">
         <f>IF(_gfln1_day_hour!AP21="","",_gfln1_day_hour!AP21)</f>
         <v/>
       </c>
@@ -10503,7 +10492,7 @@
         <f>IF(_gfln1_day_hour!AO22="","",_gfln1_day_hour!AO22)</f>
         <v/>
       </c>
-      <c r="BV29" s="70" t="str">
+      <c r="BV29" s="71" t="str">
         <f>IF(_gfln1_day_hour!AP22="","",_gfln1_day_hour!AP22)</f>
         <v/>
       </c>
@@ -10793,7 +10782,7 @@
         <f>IF(_gfln1_day_hour!AO23="","",_gfln1_day_hour!AO23)</f>
         <v/>
       </c>
-      <c r="BV30" s="70" t="str">
+      <c r="BV30" s="71" t="str">
         <f>IF(_gfln1_day_hour!AP23="","",_gfln1_day_hour!AP23)</f>
         <v/>
       </c>
@@ -11083,7 +11072,7 @@
         <f>IF(_gfln1_day_hour!AO24="","",_gfln1_day_hour!AO24)</f>
         <v/>
       </c>
-      <c r="BV31" s="70" t="str">
+      <c r="BV31" s="71" t="str">
         <f>IF(_gfln1_day_hour!AP24="","",_gfln1_day_hour!AP24)</f>
         <v/>
       </c>
@@ -11373,7 +11362,7 @@
         <f>IF(_gfln1_day_hour!AO25="","",_gfln1_day_hour!AO25)</f>
         <v/>
       </c>
-      <c r="BV32" s="70" t="str">
+      <c r="BV32" s="71" t="str">
         <f>IF(_gfln1_day_hour!AP25="","",_gfln1_day_hour!AP25)</f>
         <v/>
       </c>
@@ -11453,7 +11442,7 @@
       <c r="BS33" s="20"/>
       <c r="BT33" s="20"/>
       <c r="BU33" s="20"/>
-      <c r="BV33" s="70"/>
+      <c r="BV33" s="71"/>
     </row>
     <row r="34" customFormat="1" spans="2:74">
       <c r="B34" s="21" t="s">
@@ -11530,7 +11519,7 @@
       <c r="BS34" s="20"/>
       <c r="BT34" s="20"/>
       <c r="BU34" s="20"/>
-      <c r="BV34" s="70"/>
+      <c r="BV34" s="71"/>
     </row>
     <row r="35" customFormat="1" spans="2:74">
       <c r="B35" s="21" t="s">
@@ -11607,7 +11596,7 @@
       <c r="BS35" s="20"/>
       <c r="BT35" s="20"/>
       <c r="BU35" s="20"/>
-      <c r="BV35" s="70"/>
+      <c r="BV35" s="71"/>
     </row>
     <row r="36" customFormat="1" ht="14.25" spans="2:74">
       <c r="B36" s="22" t="s">
@@ -11684,7 +11673,7 @@
       <c r="BS36" s="20"/>
       <c r="BT36" s="20"/>
       <c r="BU36" s="20"/>
-      <c r="BV36" s="70"/>
+      <c r="BV36" s="71"/>
     </row>
     <row r="37" customFormat="1" ht="84" customHeight="1" spans="2:74">
       <c r="B37" s="24" t="s">
@@ -11711,7 +11700,7 @@
       <c r="S37" s="41"/>
       <c r="T37" s="41"/>
       <c r="U37" s="41"/>
-      <c r="V37" s="51"/>
+      <c r="V37" s="52"/>
       <c r="W37" s="40" t="s">
         <v>201</v>
       </c>
@@ -11724,7 +11713,7 @@
       <c r="AD37" s="41"/>
       <c r="AE37" s="41"/>
       <c r="AF37" s="41"/>
-      <c r="AG37" s="51"/>
+      <c r="AG37" s="52"/>
       <c r="AH37" s="20"/>
       <c r="AI37" s="20"/>
       <c r="AJ37" s="20"/>
@@ -11765,7 +11754,7 @@
       <c r="BS37" s="20"/>
       <c r="BT37" s="20"/>
       <c r="BU37" s="20"/>
-      <c r="BV37" s="70"/>
+      <c r="BV37" s="71"/>
     </row>
     <row r="38" customFormat="1" ht="16.5" spans="2:74">
       <c r="B38" s="26" t="s">
@@ -11792,7 +11781,7 @@
       <c r="S38" s="44"/>
       <c r="T38" s="44"/>
       <c r="U38" s="44"/>
-      <c r="V38" s="52"/>
+      <c r="V38" s="53"/>
       <c r="W38" s="43" t="s">
         <v>202</v>
       </c>
@@ -11805,48 +11794,48 @@
       <c r="AD38" s="44"/>
       <c r="AE38" s="44"/>
       <c r="AF38" s="44"/>
-      <c r="AG38" s="52"/>
-      <c r="AH38" s="57"/>
-      <c r="AI38" s="57"/>
-      <c r="AJ38" s="57"/>
-      <c r="AK38" s="57"/>
-      <c r="AL38" s="57"/>
-      <c r="AM38" s="57"/>
-      <c r="AN38" s="57"/>
-      <c r="AO38" s="57"/>
-      <c r="AP38" s="57"/>
-      <c r="AQ38" s="57"/>
-      <c r="AR38" s="57"/>
-      <c r="AS38" s="57"/>
-      <c r="AT38" s="57"/>
-      <c r="AU38" s="57"/>
-      <c r="AV38" s="57"/>
-      <c r="AW38" s="57"/>
-      <c r="AX38" s="57"/>
-      <c r="AY38" s="57"/>
-      <c r="AZ38" s="57"/>
-      <c r="BA38" s="57"/>
-      <c r="BB38" s="57"/>
-      <c r="BC38" s="57"/>
-      <c r="BD38" s="57"/>
-      <c r="BE38" s="57"/>
-      <c r="BF38" s="57"/>
-      <c r="BG38" s="57"/>
-      <c r="BH38" s="57"/>
-      <c r="BI38" s="57"/>
-      <c r="BJ38" s="57"/>
-      <c r="BK38" s="57"/>
-      <c r="BL38" s="57"/>
-      <c r="BM38" s="57"/>
-      <c r="BN38" s="57"/>
-      <c r="BO38" s="57"/>
-      <c r="BP38" s="57"/>
-      <c r="BQ38" s="57"/>
-      <c r="BR38" s="57"/>
-      <c r="BS38" s="57"/>
-      <c r="BT38" s="57"/>
-      <c r="BU38" s="57"/>
-      <c r="BV38" s="71"/>
+      <c r="AG38" s="53"/>
+      <c r="AH38" s="58"/>
+      <c r="AI38" s="58"/>
+      <c r="AJ38" s="58"/>
+      <c r="AK38" s="58"/>
+      <c r="AL38" s="58"/>
+      <c r="AM38" s="58"/>
+      <c r="AN38" s="58"/>
+      <c r="AO38" s="58"/>
+      <c r="AP38" s="58"/>
+      <c r="AQ38" s="58"/>
+      <c r="AR38" s="58"/>
+      <c r="AS38" s="58"/>
+      <c r="AT38" s="58"/>
+      <c r="AU38" s="58"/>
+      <c r="AV38" s="58"/>
+      <c r="AW38" s="58"/>
+      <c r="AX38" s="58"/>
+      <c r="AY38" s="58"/>
+      <c r="AZ38" s="58"/>
+      <c r="BA38" s="58"/>
+      <c r="BB38" s="58"/>
+      <c r="BC38" s="58"/>
+      <c r="BD38" s="58"/>
+      <c r="BE38" s="58"/>
+      <c r="BF38" s="58"/>
+      <c r="BG38" s="58"/>
+      <c r="BH38" s="58"/>
+      <c r="BI38" s="58"/>
+      <c r="BJ38" s="58"/>
+      <c r="BK38" s="58"/>
+      <c r="BL38" s="58"/>
+      <c r="BM38" s="58"/>
+      <c r="BN38" s="58"/>
+      <c r="BO38" s="58"/>
+      <c r="BP38" s="58"/>
+      <c r="BQ38" s="58"/>
+      <c r="BR38" s="58"/>
+      <c r="BS38" s="58"/>
+      <c r="BT38" s="58"/>
+      <c r="BU38" s="58"/>
+      <c r="BV38" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="68">
@@ -12352,4 +12341,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/excel/finished/焦化/CK67-鼓风冷凝(日)报表设计.xlsx
+++ b/excel/finished/焦化/CK67-鼓风冷凝(日)报表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="1.鼓风冷凝(日)" sheetId="1" r:id="rId1"/>
@@ -1375,10 +1375,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="46">
+  <fonts count="45">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1507,6 +1507,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1514,7 +1521,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1536,6 +1543,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -1551,8 +1574,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1566,39 +1598,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1613,58 +1649,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
@@ -1694,37 +1687,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1742,7 +1777,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1754,13 +1795,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1772,49 +1849,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1826,55 +1861,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2238,6 +2231,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2245,21 +2253,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2288,17 +2281,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2317,25 +2319,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2344,136 +2337,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -3497,9 +3490,9 @@
       <c r="S2" s="29"/>
       <c r="T2" s="45"/>
       <c r="U2" s="46"/>
-      <c r="V2" s="47">
-        <f>_metadata!B2</f>
-        <v>0</v>
+      <c r="V2" s="47" t="str">
+        <f>IF(_metadata!B2="","",_metadata!B2)</f>
+        <v/>
       </c>
       <c r="W2" s="47"/>
       <c r="X2" s="47"/>

--- a/excel/finished/焦化/CK67-鼓风冷凝(日)报表设计.xlsx
+++ b/excel/finished/焦化/CK67-鼓风冷凝(日)报表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="1.鼓风冷凝(日)" sheetId="1" r:id="rId1"/>
@@ -1373,10 +1373,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="45">
     <font>
@@ -1507,13 +1507,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1521,7 +1514,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1551,14 +1556,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -1568,7 +1565,61 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1590,16 +1641,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1607,49 +1650,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1687,6 +1687,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1699,7 +1717,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1717,55 +1831,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1777,97 +1861,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2222,6 +2222,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2246,13 +2261,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2261,6 +2280,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2281,41 +2311,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2325,10 +2325,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2337,136 +2337,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="22" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>

--- a/excel/finished/焦化/CK67-鼓风冷凝(日)报表设计.xlsx
+++ b/excel/finished/焦化/CK67-鼓风冷凝(日)报表设计.xlsx
@@ -4,22 +4,86 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="1.鼓风冷凝(日)" sheetId="1" r:id="rId1"/>
     <sheet name="_gfln1_day_hour" sheetId="2" r:id="rId2"/>
     <sheet name="_gfln2_day_hour" sheetId="3" r:id="rId3"/>
-    <sheet name="_metadata" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204">
   <si>
     <t>6-7#  焦 炉 鼓 风 冷 凝 操 作 记 录</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">                               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">             </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">              </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
   <si>
     <t>SGSSG-BSMCSA35-G009-01A</t>
@@ -1373,12 +1437,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1478,11 +1542,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -1514,9 +1573,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1526,7 +1593,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1540,24 +1607,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1565,7 +1624,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1579,16 +1653,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1611,45 +1708,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1687,7 +1746,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1699,19 +1764,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1729,7 +1800,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1741,19 +1902,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1765,55 +1914,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1825,54 +1926,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -2156,15 +2215,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -2222,6 +2272,33 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2237,11 +2314,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2261,30 +2359,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2295,40 +2369,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2337,140 +2387,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2600,23 +2650,20 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2629,7 +2676,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2642,32 +2689,32 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2741,7 +2788,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:colOff>595512</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2752,7 +2799,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10795000" y="8840470"/>
+          <a:off x="10795000" y="8802370"/>
           <a:ext cx="3511550" cy="134620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2933,9 +2980,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:colOff>595512</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2944,7 +2991,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11804650" y="8669020"/>
+          <a:off x="11804650" y="8630920"/>
           <a:ext cx="3568700" cy="2620645"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3379,8 +3426,8 @@
   <sheetPr/>
   <dimension ref="A1:BW38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:AC2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3392,7 +3439,7 @@
     <col min="74" max="75" width="8.625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36.95" customHeight="1" spans="2:74">
+    <row r="1" customFormat="1" ht="36.95" customHeight="1" spans="2:74">
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3469,7 +3516,7 @@
       <c r="BU1" s="7"/>
       <c r="BV1" s="7"/>
     </row>
-    <row r="2" ht="19.5" spans="2:40">
+    <row r="2" customFormat="1" ht="16.5" spans="2:40">
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -3490,38 +3537,37 @@
       <c r="S2" s="29"/>
       <c r="T2" s="45"/>
       <c r="U2" s="46"/>
-      <c r="V2" s="47" t="str">
-        <f>IF(_metadata!B2="","",_metadata!B2)</f>
-        <v/>
-      </c>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="56" t="s">
+      <c r="V2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
     </row>
-    <row r="3" ht="15.6" customHeight="1" spans="1:75">
+    <row r="3" customFormat="1" ht="15.6" customHeight="1" spans="1:75">
       <c r="A3" s="10"/>
       <c r="B3" s="11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -3532,158 +3578,158 @@
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="30" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
       <c r="R3" s="12"/>
-      <c r="S3" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48" t="s">
+      <c r="S3" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="AF3" s="55"/>
-      <c r="AG3" s="55"/>
-      <c r="AH3" s="55"/>
-      <c r="AI3" s="55"/>
-      <c r="AJ3" s="55"/>
-      <c r="AK3" s="55"/>
-      <c r="AL3" s="55"/>
-      <c r="AM3" s="55"/>
-      <c r="AN3" s="55"/>
-      <c r="AO3" s="55"/>
-      <c r="AP3" s="48" t="s">
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AQ3" s="48"/>
-      <c r="AR3" s="48"/>
-      <c r="AS3" s="48"/>
-      <c r="AT3" s="48"/>
-      <c r="AU3" s="48"/>
-      <c r="AV3" s="48"/>
-      <c r="AW3" s="48"/>
-      <c r="AX3" s="48"/>
-      <c r="AY3" s="48"/>
-      <c r="AZ3" s="48"/>
-      <c r="BA3" s="48"/>
-      <c r="BB3" s="61" t="s">
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="BC3" s="61" t="s">
+      <c r="AQ3" s="47"/>
+      <c r="AR3" s="47"/>
+      <c r="AS3" s="47"/>
+      <c r="AT3" s="47"/>
+      <c r="AU3" s="47"/>
+      <c r="AV3" s="47"/>
+      <c r="AW3" s="47"/>
+      <c r="AX3" s="47"/>
+      <c r="AY3" s="47"/>
+      <c r="AZ3" s="47"/>
+      <c r="BA3" s="47"/>
+      <c r="BB3" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="BD3" s="61"/>
-      <c r="BE3" s="61" t="s">
+      <c r="BC3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="BF3" s="63" t="s">
+      <c r="BD3" s="60"/>
+      <c r="BE3" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="BG3" s="63"/>
-      <c r="BH3" s="63"/>
-      <c r="BI3" s="63"/>
-      <c r="BJ3" s="64" t="s">
+      <c r="BF3" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="BK3" s="64"/>
-      <c r="BL3" s="64"/>
-      <c r="BM3" s="64"/>
-      <c r="BN3" s="64" t="s">
+      <c r="BG3" s="62"/>
+      <c r="BH3" s="62"/>
+      <c r="BI3" s="62"/>
+      <c r="BJ3" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="BO3" s="64"/>
-      <c r="BP3" s="64"/>
-      <c r="BQ3" s="64"/>
+      <c r="BK3" s="63"/>
+      <c r="BL3" s="63"/>
+      <c r="BM3" s="63"/>
+      <c r="BN3" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO3" s="63"/>
+      <c r="BP3" s="63"/>
+      <c r="BQ3" s="63"/>
       <c r="BR3" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BS3" s="12"/>
       <c r="BT3" s="12"/>
       <c r="BU3" s="12"/>
-      <c r="BV3" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="BW3" s="54"/>
+      <c r="BV3" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="BW3" s="53"/>
     </row>
-    <row r="4" ht="29.45" customHeight="1" spans="1:75">
+    <row r="4" customFormat="1" ht="29.45" customHeight="1" spans="1:75">
       <c r="A4" s="10"/>
       <c r="B4" s="13"/>
       <c r="C4" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L4" s="32"/>
       <c r="M4" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P4" s="33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
       <c r="S4" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T4" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U4" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="V4" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="W4" s="49" t="s">
+      <c r="V4" s="48" t="s">
         <v>34</v>
       </c>
+      <c r="W4" s="48" t="s">
+        <v>35</v>
+      </c>
       <c r="X4" s="33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y4" s="33"/>
       <c r="Z4" s="33"/>
@@ -3692,72 +3738,72 @@
       <c r="AC4" s="33"/>
       <c r="AD4" s="33"/>
       <c r="AE4" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF4" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AG4" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AH4" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI4" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ4" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AK4" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AL4" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AM4" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AN4" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AO4" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AP4" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AQ4" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AR4" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AS4" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AT4" s="14"/>
       <c r="AU4" s="14"/>
       <c r="AV4" s="14"/>
       <c r="AW4" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AX4" s="14"/>
       <c r="AY4" s="14"/>
       <c r="AZ4" s="14"/>
       <c r="BA4" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="BB4" s="14"/>
       <c r="BC4" s="14"/>
       <c r="BD4" s="14"/>
       <c r="BE4" s="14"/>
       <c r="BF4" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="BG4" s="14"/>
       <c r="BH4" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="BI4" s="14"/>
       <c r="BJ4" s="35"/>
@@ -3769,19 +3815,19 @@
       <c r="BP4" s="35"/>
       <c r="BQ4" s="35"/>
       <c r="BR4" s="35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BS4" s="35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BT4" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BU4" s="14"/>
-      <c r="BV4" s="69"/>
-      <c r="BW4" s="54"/>
+      <c r="BV4" s="68"/>
+      <c r="BW4" s="53"/>
     </row>
-    <row r="5" ht="29.1" customHeight="1" spans="1:75">
+    <row r="5" customFormat="1" ht="29.1" customHeight="1" spans="1:75">
       <c r="A5" s="10"/>
       <c r="B5" s="16"/>
       <c r="C5" s="17"/>
@@ -3794,7 +3840,7 @@
       <c r="J5" s="34"/>
       <c r="K5" s="17"/>
       <c r="L5" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M5" s="15"/>
       <c r="N5" s="14"/>
@@ -3811,27 +3857,27 @@
       <c r="S5" s="20"/>
       <c r="T5" s="20"/>
       <c r="U5" s="20"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="51">
+      <c r="V5" s="48"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="50">
         <v>1</v>
       </c>
-      <c r="Y5" s="51">
+      <c r="Y5" s="50">
         <v>2</v>
       </c>
-      <c r="Z5" s="51">
+      <c r="Z5" s="50">
         <v>3</v>
       </c>
-      <c r="AA5" s="51">
+      <c r="AA5" s="50">
         <v>4</v>
       </c>
-      <c r="AB5" s="51">
+      <c r="AB5" s="50">
         <v>5</v>
       </c>
-      <c r="AC5" s="51">
+      <c r="AC5" s="50">
         <v>6</v>
       </c>
-      <c r="AD5" s="51">
+      <c r="AD5" s="50">
         <v>7</v>
       </c>
       <c r="AE5" s="14"/>
@@ -3848,309 +3894,309 @@
       <c r="AP5" s="14"/>
       <c r="AQ5" s="14"/>
       <c r="AR5" s="14"/>
-      <c r="AS5" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="AT5" s="60" t="s">
+      <c r="AS5" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="AU5" s="59" t="s">
+      <c r="AT5" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="AV5" s="60" t="s">
+      <c r="AU5" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="AW5" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="AX5" s="60" t="s">
+      <c r="AV5" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW5" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="AY5" s="59" t="s">
+      <c r="AX5" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="AZ5" s="60" t="s">
+      <c r="AY5" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="BA5" s="59"/>
+      <c r="AZ5" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA5" s="58"/>
       <c r="BB5" s="14"/>
-      <c r="BC5" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="BD5" s="49" t="s">
+      <c r="BC5" s="61" t="s">
         <v>59</v>
       </c>
+      <c r="BD5" s="48" t="s">
+        <v>60</v>
+      </c>
       <c r="BE5" s="14"/>
-      <c r="BF5" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="BG5" s="65" t="s">
+      <c r="BF5" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="BH5" s="66" t="s">
-        <v>60</v>
-      </c>
-      <c r="BI5" s="66" t="s">
+      <c r="BG5" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="BH5" s="65" t="s">
         <v>61</v>
       </c>
+      <c r="BI5" s="65" t="s">
+        <v>62</v>
+      </c>
       <c r="BJ5" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BK5" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="BL5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="BM5" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN5" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="BL5" s="14" t="s">
+      <c r="BO5" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="BM5" s="14" t="s">
+      <c r="BP5" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="BN5" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="BO5" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="BP5" s="14" t="s">
-        <v>64</v>
-      </c>
       <c r="BQ5" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BR5" s="35"/>
       <c r="BS5" s="35"/>
-      <c r="BT5" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="BU5" s="70" t="s">
+      <c r="BT5" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="BV5" s="69"/>
-      <c r="BW5" s="54"/>
+      <c r="BU5" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="BV5" s="68"/>
+      <c r="BW5" s="53"/>
     </row>
-    <row r="6" ht="60" spans="1:74">
+    <row r="6" customFormat="1" ht="60" spans="1:74">
       <c r="A6" s="10"/>
       <c r="B6" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L6" s="36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AH6" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AI6" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ6" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL6" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AN6" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AO6" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AP6" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AQ6" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AR6" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AS6" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AT6" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AU6" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AV6" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AW6" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AX6" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AY6" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AZ6" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BA6" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BB6" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="BC6" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BD6" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="BE6" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BF6" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="BG6" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="BH6" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BI6" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BJ6" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BK6" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BL6" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BM6" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BN6" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="BO6" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="BP6" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BQ6" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BR6" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BS6" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="BT6" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BU6" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BV6" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="7" ht="67.5" spans="2:74">
+    <row r="7" customFormat="1" ht="67.5" spans="2:74">
       <c r="B7" s="19">
         <v>0</v>
       </c>
@@ -4165,91 +4211,91 @@
       <c r="K7" s="20"/>
       <c r="L7" s="37"/>
       <c r="M7" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AH7" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AI7" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AJ7" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK7" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL7" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM7" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AN7" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AO7" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AP7" s="20"/>
       <c r="AQ7" s="20"/>
@@ -4283,9 +4329,9 @@
       <c r="BS7" s="20"/>
       <c r="BT7" s="20"/>
       <c r="BU7" s="20"/>
-      <c r="BV7" s="71"/>
+      <c r="BV7" s="70"/>
     </row>
-    <row r="8" ht="81.95" customHeight="1" spans="2:74">
+    <row r="8" customFormat="1" ht="82" customHeight="1" spans="2:74">
       <c r="B8" s="19">
         <v>0.0416666666666667</v>
       </c>
@@ -4300,91 +4346,91 @@
       <c r="K8" s="20"/>
       <c r="L8" s="38"/>
       <c r="M8" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AD8" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AE8" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF8" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG8" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AH8" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AI8" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AJ8" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AK8" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL8" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM8" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN8" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AO8" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AP8" s="20"/>
       <c r="AQ8" s="20"/>
@@ -4418,9 +4464,9 @@
       <c r="BS8" s="20"/>
       <c r="BT8" s="20"/>
       <c r="BU8" s="20"/>
-      <c r="BV8" s="71"/>
+      <c r="BV8" s="70"/>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="2:74">
+    <row r="9" customFormat="1" ht="20" customHeight="1" spans="2:74">
       <c r="B9" s="19">
         <v>0</v>
       </c>
@@ -4705,12 +4751,12 @@
         <f>IF(_gfln1_day_hour!AO2="","",_gfln1_day_hour!AO2)</f>
         <v/>
       </c>
-      <c r="BV9" s="71" t="str">
+      <c r="BV9" s="70" t="str">
         <f>IF(_gfln1_day_hour!AP2="","",_gfln1_day_hour!AP2)</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="18.95" customHeight="1" spans="2:74">
+    <row r="10" customFormat="1" ht="19" customHeight="1" spans="2:74">
       <c r="B10" s="19">
         <v>0.0416666666666667</v>
       </c>
@@ -4995,12 +5041,12 @@
         <f>IF(_gfln1_day_hour!AO3="","",_gfln1_day_hour!AO3)</f>
         <v/>
       </c>
-      <c r="BV10" s="71" t="str">
+      <c r="BV10" s="70" t="str">
         <f>IF(_gfln1_day_hour!AP3="","",_gfln1_day_hour!AP3)</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:74">
+    <row r="11" customFormat="1" spans="2:74">
       <c r="B11" s="19">
         <v>0.0833333333333333</v>
       </c>
@@ -5285,12 +5331,12 @@
         <f>IF(_gfln1_day_hour!AO4="","",_gfln1_day_hour!AO4)</f>
         <v/>
       </c>
-      <c r="BV11" s="71" t="str">
+      <c r="BV11" s="70" t="str">
         <f>IF(_gfln1_day_hour!AP4="","",_gfln1_day_hour!AP4)</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:74">
+    <row r="12" customFormat="1" spans="2:74">
       <c r="B12" s="19">
         <v>0.125</v>
       </c>
@@ -5575,12 +5621,12 @@
         <f>IF(_gfln1_day_hour!AO5="","",_gfln1_day_hour!AO5)</f>
         <v/>
       </c>
-      <c r="BV12" s="71" t="str">
+      <c r="BV12" s="70" t="str">
         <f>IF(_gfln1_day_hour!AP5="","",_gfln1_day_hour!AP5)</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:74">
+    <row r="13" customFormat="1" spans="2:74">
       <c r="B13" s="19">
         <v>0.166666666666667</v>
       </c>
@@ -5865,12 +5911,12 @@
         <f>IF(_gfln1_day_hour!AO6="","",_gfln1_day_hour!AO6)</f>
         <v/>
       </c>
-      <c r="BV13" s="71" t="str">
+      <c r="BV13" s="70" t="str">
         <f>IF(_gfln1_day_hour!AP6="","",_gfln1_day_hour!AP6)</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:74">
+    <row r="14" customFormat="1" spans="2:74">
       <c r="B14" s="19">
         <v>0.208333333333333</v>
       </c>
@@ -6155,12 +6201,12 @@
         <f>IF(_gfln1_day_hour!AO7="","",_gfln1_day_hour!AO7)</f>
         <v/>
       </c>
-      <c r="BV14" s="71" t="str">
+      <c r="BV14" s="70" t="str">
         <f>IF(_gfln1_day_hour!AP7="","",_gfln1_day_hour!AP7)</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="16.5" customHeight="1" spans="2:74">
+    <row r="15" customFormat="1" ht="16.5" customHeight="1" spans="2:74">
       <c r="B15" s="19">
         <v>0.25</v>
       </c>
@@ -6445,12 +6491,12 @@
         <f>IF(_gfln1_day_hour!AO8="","",_gfln1_day_hour!AO8)</f>
         <v/>
       </c>
-      <c r="BV15" s="71" t="str">
+      <c r="BV15" s="70" t="str">
         <f>IF(_gfln1_day_hour!AP8="","",_gfln1_day_hour!AP8)</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="14.1" customHeight="1" spans="2:74">
+    <row r="16" customFormat="1" ht="14.1" customHeight="1" spans="2:74">
       <c r="B16" s="19">
         <v>0.291666666666667</v>
       </c>
@@ -6735,12 +6781,12 @@
         <f>IF(_gfln1_day_hour!AO9="","",_gfln1_day_hour!AO9)</f>
         <v/>
       </c>
-      <c r="BV16" s="71" t="str">
+      <c r="BV16" s="70" t="str">
         <f>IF(_gfln1_day_hour!AP9="","",_gfln1_day_hour!AP9)</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:74">
+    <row r="17" customFormat="1" spans="2:74">
       <c r="B17" s="19">
         <v>0.333333333333333</v>
       </c>
@@ -7025,12 +7071,12 @@
         <f>IF(_gfln1_day_hour!AO10="","",_gfln1_day_hour!AO10)</f>
         <v/>
       </c>
-      <c r="BV17" s="71" t="str">
+      <c r="BV17" s="70" t="str">
         <f>IF(_gfln1_day_hour!AP10="","",_gfln1_day_hour!AP10)</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:74">
+    <row r="18" customFormat="1" spans="2:74">
       <c r="B18" s="19">
         <v>0.375</v>
       </c>
@@ -7315,12 +7361,12 @@
         <f>IF(_gfln1_day_hour!AO11="","",_gfln1_day_hour!AO11)</f>
         <v/>
       </c>
-      <c r="BV18" s="71" t="str">
+      <c r="BV18" s="70" t="str">
         <f>IF(_gfln1_day_hour!AP11="","",_gfln1_day_hour!AP11)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:74">
+    <row r="19" customFormat="1" spans="2:74">
       <c r="B19" s="19">
         <v>0.416666666666666</v>
       </c>
@@ -7605,12 +7651,12 @@
         <f>IF(_gfln1_day_hour!AO12="","",_gfln1_day_hour!AO12)</f>
         <v/>
       </c>
-      <c r="BV19" s="71" t="str">
+      <c r="BV19" s="70" t="str">
         <f>IF(_gfln1_day_hour!AP12="","",_gfln1_day_hour!AP12)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:74">
+    <row r="20" customFormat="1" spans="2:74">
       <c r="B20" s="19">
         <v>0.458333333333333</v>
       </c>
@@ -7895,12 +7941,12 @@
         <f>IF(_gfln1_day_hour!AO13="","",_gfln1_day_hour!AO13)</f>
         <v/>
       </c>
-      <c r="BV20" s="71" t="str">
+      <c r="BV20" s="70" t="str">
         <f>IF(_gfln1_day_hour!AP13="","",_gfln1_day_hour!AP13)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:74">
+    <row r="21" customFormat="1" spans="2:74">
       <c r="B21" s="19">
         <v>0.5</v>
       </c>
@@ -8185,12 +8231,12 @@
         <f>IF(_gfln1_day_hour!AO14="","",_gfln1_day_hour!AO14)</f>
         <v/>
       </c>
-      <c r="BV21" s="71" t="str">
+      <c r="BV21" s="70" t="str">
         <f>IF(_gfln1_day_hour!AP14="","",_gfln1_day_hour!AP14)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:74">
+    <row r="22" customFormat="1" spans="2:74">
       <c r="B22" s="19">
         <v>0.541666666666666</v>
       </c>
@@ -8475,12 +8521,12 @@
         <f>IF(_gfln1_day_hour!AO15="","",_gfln1_day_hour!AO15)</f>
         <v/>
       </c>
-      <c r="BV22" s="71" t="str">
+      <c r="BV22" s="70" t="str">
         <f>IF(_gfln1_day_hour!AP15="","",_gfln1_day_hour!AP15)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:74">
+    <row r="23" customFormat="1" spans="2:74">
       <c r="B23" s="19">
         <v>0.583333333333333</v>
       </c>
@@ -8765,12 +8811,12 @@
         <f>IF(_gfln1_day_hour!AO16="","",_gfln1_day_hour!AO16)</f>
         <v/>
       </c>
-      <c r="BV23" s="71" t="str">
+      <c r="BV23" s="70" t="str">
         <f>IF(_gfln1_day_hour!AP16="","",_gfln1_day_hour!AP16)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:74">
+    <row r="24" customFormat="1" spans="2:74">
       <c r="B24" s="19">
         <v>0.625</v>
       </c>
@@ -9055,12 +9101,12 @@
         <f>IF(_gfln1_day_hour!AO17="","",_gfln1_day_hour!AO17)</f>
         <v/>
       </c>
-      <c r="BV24" s="71" t="str">
+      <c r="BV24" s="70" t="str">
         <f>IF(_gfln1_day_hour!AP17="","",_gfln1_day_hour!AP17)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:74">
+    <row r="25" customFormat="1" spans="2:74">
       <c r="B25" s="19">
         <v>0.666666666666667</v>
       </c>
@@ -9345,12 +9391,12 @@
         <f>IF(_gfln1_day_hour!AO18="","",_gfln1_day_hour!AO18)</f>
         <v/>
       </c>
-      <c r="BV25" s="71" t="str">
+      <c r="BV25" s="70" t="str">
         <f>IF(_gfln1_day_hour!AP18="","",_gfln1_day_hour!AP18)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:74">
+    <row r="26" customFormat="1" spans="2:74">
       <c r="B26" s="19">
         <v>0.708333333333333</v>
       </c>
@@ -9635,12 +9681,12 @@
         <f>IF(_gfln1_day_hour!AO19="","",_gfln1_day_hour!AO19)</f>
         <v/>
       </c>
-      <c r="BV26" s="71" t="str">
+      <c r="BV26" s="70" t="str">
         <f>IF(_gfln1_day_hour!AP19="","",_gfln1_day_hour!AP19)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:74">
+    <row r="27" customFormat="1" spans="2:74">
       <c r="B27" s="19">
         <v>0.75</v>
       </c>
@@ -9925,12 +9971,12 @@
         <f>IF(_gfln1_day_hour!AO20="","",_gfln1_day_hour!AO20)</f>
         <v/>
       </c>
-      <c r="BV27" s="71" t="str">
+      <c r="BV27" s="70" t="str">
         <f>IF(_gfln1_day_hour!AP20="","",_gfln1_day_hour!AP20)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:74">
+    <row r="28" customFormat="1" spans="2:74">
       <c r="B28" s="19">
         <v>0.791666666666667</v>
       </c>
@@ -10215,12 +10261,12 @@
         <f>IF(_gfln1_day_hour!AO21="","",_gfln1_day_hour!AO21)</f>
         <v/>
       </c>
-      <c r="BV28" s="71" t="str">
+      <c r="BV28" s="70" t="str">
         <f>IF(_gfln1_day_hour!AP21="","",_gfln1_day_hour!AP21)</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:74">
+    <row r="29" customFormat="1" spans="2:74">
       <c r="B29" s="19">
         <v>0.833333333333333</v>
       </c>
@@ -10505,12 +10551,12 @@
         <f>IF(_gfln1_day_hour!AO22="","",_gfln1_day_hour!AO22)</f>
         <v/>
       </c>
-      <c r="BV29" s="71" t="str">
+      <c r="BV29" s="70" t="str">
         <f>IF(_gfln1_day_hour!AP22="","",_gfln1_day_hour!AP22)</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:74">
+    <row r="30" customFormat="1" spans="2:74">
       <c r="B30" s="19">
         <v>0.875</v>
       </c>
@@ -10795,12 +10841,12 @@
         <f>IF(_gfln1_day_hour!AO23="","",_gfln1_day_hour!AO23)</f>
         <v/>
       </c>
-      <c r="BV30" s="71" t="str">
+      <c r="BV30" s="70" t="str">
         <f>IF(_gfln1_day_hour!AP23="","",_gfln1_day_hour!AP23)</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:74">
+    <row r="31" customFormat="1" spans="2:74">
       <c r="B31" s="19">
         <v>0.916666666666667</v>
       </c>
@@ -11085,12 +11131,12 @@
         <f>IF(_gfln1_day_hour!AO24="","",_gfln1_day_hour!AO24)</f>
         <v/>
       </c>
-      <c r="BV31" s="71" t="str">
+      <c r="BV31" s="70" t="str">
         <f>IF(_gfln1_day_hour!AP24="","",_gfln1_day_hour!AP24)</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:74">
+    <row r="32" customFormat="1" spans="2:74">
       <c r="B32" s="19">
         <v>0.958333333333333</v>
       </c>
@@ -11375,14 +11421,14 @@
         <f>IF(_gfln1_day_hour!AO25="","",_gfln1_day_hour!AO25)</f>
         <v/>
       </c>
-      <c r="BV32" s="71" t="str">
+      <c r="BV32" s="70" t="str">
         <f>IF(_gfln1_day_hour!AP25="","",_gfln1_day_hour!AP25)</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:74">
+    <row r="33" customFormat="1" spans="2:74">
       <c r="B33" s="21" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
@@ -11455,11 +11501,11 @@
       <c r="BS33" s="20"/>
       <c r="BT33" s="20"/>
       <c r="BU33" s="20"/>
-      <c r="BV33" s="71"/>
+      <c r="BV33" s="70"/>
     </row>
-    <row r="34" spans="2:74">
+    <row r="34" customFormat="1" spans="2:74">
       <c r="B34" s="21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="20"/>
@@ -11532,11 +11578,11 @@
       <c r="BS34" s="20"/>
       <c r="BT34" s="20"/>
       <c r="BU34" s="20"/>
-      <c r="BV34" s="71"/>
+      <c r="BV34" s="70"/>
     </row>
-    <row r="35" spans="2:74">
+    <row r="35" customFormat="1" spans="2:74">
       <c r="B35" s="21" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
@@ -11609,11 +11655,11 @@
       <c r="BS35" s="20"/>
       <c r="BT35" s="20"/>
       <c r="BU35" s="20"/>
-      <c r="BV35" s="71"/>
+      <c r="BV35" s="70"/>
     </row>
-    <row r="36" ht="14.25" spans="2:74">
+    <row r="36" customFormat="1" ht="14.25" spans="2:74">
       <c r="B36" s="22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C36" s="23"/>
       <c r="D36" s="23"/>
@@ -11686,11 +11732,11 @@
       <c r="BS36" s="20"/>
       <c r="BT36" s="20"/>
       <c r="BU36" s="20"/>
-      <c r="BV36" s="71"/>
+      <c r="BV36" s="70"/>
     </row>
-    <row r="37" ht="84" customHeight="1" spans="2:74">
+    <row r="37" customFormat="1" ht="84" customHeight="1" spans="2:74">
       <c r="B37" s="24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -11702,7 +11748,7 @@
       <c r="J37" s="25"/>
       <c r="K37" s="39"/>
       <c r="L37" s="40" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M37" s="41"/>
       <c r="N37" s="41"/>
@@ -11713,9 +11759,9 @@
       <c r="S37" s="41"/>
       <c r="T37" s="41"/>
       <c r="U37" s="41"/>
-      <c r="V37" s="52"/>
+      <c r="V37" s="51"/>
       <c r="W37" s="40" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="X37" s="41"/>
       <c r="Y37" s="41"/>
@@ -11726,7 +11772,7 @@
       <c r="AD37" s="41"/>
       <c r="AE37" s="41"/>
       <c r="AF37" s="41"/>
-      <c r="AG37" s="52"/>
+      <c r="AG37" s="51"/>
       <c r="AH37" s="20"/>
       <c r="AI37" s="20"/>
       <c r="AJ37" s="20"/>
@@ -11767,11 +11813,11 @@
       <c r="BS37" s="20"/>
       <c r="BT37" s="20"/>
       <c r="BU37" s="20"/>
-      <c r="BV37" s="71"/>
+      <c r="BV37" s="70"/>
     </row>
-    <row r="38" ht="16.5" spans="2:74">
+    <row r="38" customFormat="1" ht="16.5" spans="2:74">
       <c r="B38" s="26" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
@@ -11783,7 +11829,7 @@
       <c r="J38" s="27"/>
       <c r="K38" s="42"/>
       <c r="L38" s="43" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M38" s="44"/>
       <c r="N38" s="44"/>
@@ -11794,9 +11840,9 @@
       <c r="S38" s="44"/>
       <c r="T38" s="44"/>
       <c r="U38" s="44"/>
-      <c r="V38" s="53"/>
+      <c r="V38" s="52"/>
       <c r="W38" s="43" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X38" s="44"/>
       <c r="Y38" s="44"/>
@@ -11807,48 +11853,48 @@
       <c r="AD38" s="44"/>
       <c r="AE38" s="44"/>
       <c r="AF38" s="44"/>
-      <c r="AG38" s="53"/>
-      <c r="AH38" s="58"/>
-      <c r="AI38" s="58"/>
-      <c r="AJ38" s="58"/>
-      <c r="AK38" s="58"/>
-      <c r="AL38" s="58"/>
-      <c r="AM38" s="58"/>
-      <c r="AN38" s="58"/>
-      <c r="AO38" s="58"/>
-      <c r="AP38" s="58"/>
-      <c r="AQ38" s="58"/>
-      <c r="AR38" s="58"/>
-      <c r="AS38" s="58"/>
-      <c r="AT38" s="58"/>
-      <c r="AU38" s="58"/>
-      <c r="AV38" s="58"/>
-      <c r="AW38" s="58"/>
-      <c r="AX38" s="58"/>
-      <c r="AY38" s="58"/>
-      <c r="AZ38" s="58"/>
-      <c r="BA38" s="58"/>
-      <c r="BB38" s="58"/>
-      <c r="BC38" s="58"/>
-      <c r="BD38" s="58"/>
-      <c r="BE38" s="58"/>
-      <c r="BF38" s="58"/>
-      <c r="BG38" s="58"/>
-      <c r="BH38" s="58"/>
-      <c r="BI38" s="58"/>
-      <c r="BJ38" s="58"/>
-      <c r="BK38" s="58"/>
-      <c r="BL38" s="58"/>
-      <c r="BM38" s="58"/>
-      <c r="BN38" s="58"/>
-      <c r="BO38" s="58"/>
-      <c r="BP38" s="58"/>
-      <c r="BQ38" s="58"/>
-      <c r="BR38" s="58"/>
-      <c r="BS38" s="58"/>
-      <c r="BT38" s="58"/>
-      <c r="BU38" s="58"/>
-      <c r="BV38" s="72"/>
+      <c r="AG38" s="52"/>
+      <c r="AH38" s="57"/>
+      <c r="AI38" s="57"/>
+      <c r="AJ38" s="57"/>
+      <c r="AK38" s="57"/>
+      <c r="AL38" s="57"/>
+      <c r="AM38" s="57"/>
+      <c r="AN38" s="57"/>
+      <c r="AO38" s="57"/>
+      <c r="AP38" s="57"/>
+      <c r="AQ38" s="57"/>
+      <c r="AR38" s="57"/>
+      <c r="AS38" s="57"/>
+      <c r="AT38" s="57"/>
+      <c r="AU38" s="57"/>
+      <c r="AV38" s="57"/>
+      <c r="AW38" s="57"/>
+      <c r="AX38" s="57"/>
+      <c r="AY38" s="57"/>
+      <c r="AZ38" s="57"/>
+      <c r="BA38" s="57"/>
+      <c r="BB38" s="57"/>
+      <c r="BC38" s="57"/>
+      <c r="BD38" s="57"/>
+      <c r="BE38" s="57"/>
+      <c r="BF38" s="57"/>
+      <c r="BG38" s="57"/>
+      <c r="BH38" s="57"/>
+      <c r="BI38" s="57"/>
+      <c r="BJ38" s="57"/>
+      <c r="BK38" s="57"/>
+      <c r="BL38" s="57"/>
+      <c r="BM38" s="57"/>
+      <c r="BN38" s="57"/>
+      <c r="BO38" s="57"/>
+      <c r="BP38" s="57"/>
+      <c r="BQ38" s="57"/>
+      <c r="BR38" s="57"/>
+      <c r="BS38" s="57"/>
+      <c r="BT38" s="57"/>
+      <c r="BU38" s="57"/>
+      <c r="BV38" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="68">
@@ -11938,132 +11984,132 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" ht="48" spans="1:42">
+    <row r="1" customFormat="1" ht="48" spans="1:42">
       <c r="A1" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AD1" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AE1" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF1" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG1" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AH1" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AI1" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AJ1" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AK1" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL1" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AM1" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AN1" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AO1" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AP1" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -12085,289 +12131,273 @@
   <sheetData>
     <row r="1" ht="36" spans="1:29">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" ht="54" spans="1:29">
       <c r="A2" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" ht="54" spans="1:29">
       <c r="A3" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
 </file>